--- a/Documentation (hours).XLSX
+++ b/Documentation (hours).XLSX
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Activity</t>
   </si>
@@ -53,12 +53,21 @@
   </si>
   <si>
     <t>Výpomoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celkový čas </t>
+  </si>
+  <si>
+    <t>Percantage of all earnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,17 +115,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,76 +451,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>129.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
